--- a/Project.Tulip.xlsx
+++ b/Project.Tulip.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macwa\Desktop\Alex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61043177-8EAE-4A85-9454-55733F400384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A70C2-1739-4AE6-9B61-3618D39885A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet 3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="209">
   <si>
     <t>HLR ID</t>
   </si>
@@ -588,13 +589,79 @@
   </si>
   <si>
     <t>it not leading on whatsapp the whatsapp number is wrong displayed</t>
+  </si>
+  <si>
+    <t>Defect Report</t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>discription</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>seviority</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>defect type</t>
+  </si>
+  <si>
+    <t>assign to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> assign by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_003 </t>
+  </si>
+  <si>
+    <t>user click on the courses to see the different types of courses</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>,user click on the exam to see upcoming exam dates and fees</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Security Defect + Functionality Dfect</t>
+  </si>
+  <si>
+    <t>Networking Defect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +706,25 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -716,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -788,6 +874,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,7 +1202,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,11 +1421,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C26BE30-1A7A-4415-ACCE-DB56551D21D8}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="77.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1795,7 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="168" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -1987,195 +2311,294 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C26BE30-1A7A-4415-ACCE-DB56551D21D8}">
-  <dimension ref="A1:B24"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03603D24-415A-435F-8F84-21DD2C326900}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="77.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="24"/>
-    </row>
-    <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="25" t="s">
-        <v>186</v>
-      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
